--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T13:54:02+00:00</t>
+    <t>2023-02-22T21:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T21:43:11+00:00</t>
+    <t>2023-02-23T12:15:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T12:15:53+00:00</t>
+    <t>2023-02-24T10:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T10:24:54+00:00</t>
+    <t>2023-02-24T11:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T11:03:16+00:00</t>
+    <t>2023-02-27T15:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T15:31:39+00:00</t>
+    <t>2023-02-28T09:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T09:49:13+00:00</t>
+    <t>2023-02-28T13:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T13:37:29+00:00</t>
+    <t>2023-03-01T12:58:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:58:58+00:00</t>
+    <t>2023-03-05T16:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T16:02:38+00:00</t>
+    <t>2023-03-05T16:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T16:12:02+00:00</t>
+    <t>2023-03-06T10:41:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ST.xlsx
+++ b/StructureDefinition-ST.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:41:52+00:00</t>
+    <t>2023-03-07T20:58:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
